--- a/team_specific_matrix/Northwestern St._B.xlsx
+++ b/team_specific_matrix/Northwestern St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2472727272727273</v>
+        <v>0.2252747252747253</v>
       </c>
       <c r="C2">
-        <v>0.4509090909090909</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02181818181818182</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1927272727272727</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08727272727272728</v>
+        <v>0.08241758241758242</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0234375</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0546875</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7421875</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1796875</v>
+        <v>0.2032967032967033</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3181818181818182</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08108108108108109</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01351351351351351</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3513513513513514</v>
+        <v>0.3282051282051282</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02027027027027027</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1351351351351351</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R6">
-        <v>0.04054054054054054</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="S6">
-        <v>0.3581081081081081</v>
+        <v>0.3487179487179487</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.128</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.016</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.048</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.152</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.016</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.192</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="R7">
-        <v>0.07199999999999999</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="S7">
-        <v>0.376</v>
+        <v>0.3967391304347826</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09446254071661238</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02280130293159609</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03908794788273615</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1563517915309446</v>
+        <v>0.1536697247706422</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03908794788273615</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1628664495114006</v>
+        <v>0.1674311926605505</v>
       </c>
       <c r="R8">
-        <v>0.08469055374592833</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="S8">
-        <v>0.4006514657980456</v>
+        <v>0.3899082568807339</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1617647058823529</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007352941176470588</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05882352941176471</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1470588235294118</v>
+        <v>0.1502890173410405</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05147058823529412</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1764705882352941</v>
+        <v>0.1676300578034682</v>
       </c>
       <c r="R9">
-        <v>0.08088235294117647</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="S9">
-        <v>0.3161764705882353</v>
+        <v>0.3468208092485549</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1237424547283702</v>
+        <v>0.1198808637379002</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0352112676056338</v>
+        <v>0.03127326880119136</v>
       </c>
       <c r="E10">
-        <v>0.001006036217303823</v>
+        <v>0.0007446016381236039</v>
       </c>
       <c r="F10">
-        <v>0.05734406438631791</v>
+        <v>0.06031273268801191</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1338028169014084</v>
+        <v>0.1280714817572599</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02414486921529175</v>
+        <v>0.02382725241995532</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2243460764587525</v>
+        <v>0.2196574832464631</v>
       </c>
       <c r="R10">
-        <v>0.07947686116700201</v>
+        <v>0.08041697691734921</v>
       </c>
       <c r="S10">
-        <v>0.3209255533199195</v>
+        <v>0.3358153387937454</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.13215859030837</v>
+        <v>0.130030959752322</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1233480176211454</v>
+        <v>0.1269349845201238</v>
       </c>
       <c r="K11">
-        <v>0.2290748898678414</v>
+        <v>0.2136222910216718</v>
       </c>
       <c r="L11">
-        <v>0.4889867841409692</v>
+        <v>0.4984520123839009</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02643171806167401</v>
+        <v>0.03095975232198142</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7391304347826086</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.208695652173913</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.008695652173913044</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04347826086956522</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4642857142857143</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1071428571428571</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0426829268292683</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1158536585365854</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="I15">
-        <v>0.0426829268292683</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.3109756097560976</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
-        <v>0.05487804878048781</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06097560975609756</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3719512195121951</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01149425287356322</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1149425287356322</v>
+        <v>0.1361702127659574</v>
       </c>
       <c r="I16">
-        <v>0.103448275862069</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="J16">
-        <v>0.4425287356321839</v>
+        <v>0.4297872340425532</v>
       </c>
       <c r="K16">
-        <v>0.103448275862069</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.01149425287356322</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="O16">
-        <v>0.06321839080459771</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1494252873563219</v>
+        <v>0.1446808510638298</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02949852507374631</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1592920353982301</v>
+        <v>0.1516483516483516</v>
       </c>
       <c r="I17">
-        <v>0.07374631268436578</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J17">
-        <v>0.4454277286135693</v>
+        <v>0.4483516483516484</v>
       </c>
       <c r="K17">
-        <v>0.1032448377581121</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01769911504424779</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06194690265486726</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1091445427728614</v>
+        <v>0.1164835164835165</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007633587786259542</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1221374045801527</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I18">
-        <v>0.06870229007633588</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.4274809160305343</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K18">
-        <v>0.1068702290076336</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01526717557251908</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08396946564885496</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1679389312977099</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02052451539338655</v>
+        <v>0.01795918367346939</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2303306727480046</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="I19">
-        <v>0.08893956670467502</v>
+        <v>0.07836734693877551</v>
       </c>
       <c r="J19">
-        <v>0.3683010262257697</v>
+        <v>0.3722448979591837</v>
       </c>
       <c r="K19">
-        <v>0.1083238312428734</v>
+        <v>0.1126530612244898</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02394526795895097</v>
+        <v>0.02204081632653061</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05587229190421893</v>
+        <v>0.0546938775510204</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1037628278221209</v>
+        <v>0.1077551020408163</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northwestern St._B.xlsx
+++ b/team_specific_matrix/Northwestern St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2252747252747253</v>
+        <v>0.2270408163265306</v>
       </c>
       <c r="C2">
-        <v>0.4835164835164835</v>
+        <v>0.4872448979591837</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02197802197802198</v>
+        <v>0.02295918367346939</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1868131868131868</v>
+        <v>0.1862244897959184</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08241758241758242</v>
+        <v>0.07653061224489796</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02197802197802198</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04395604395604396</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7307692307692307</v>
+        <v>0.7437185929648241</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2032967032967033</v>
+        <v>0.1909547738693467</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6896551724137931</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.3220338983050847</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005128205128205128</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01538461538461539</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3282051282051282</v>
+        <v>0.325242718446602</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02051282051282051</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1692307692307692</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="R6">
-        <v>0.04615384615384616</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="S6">
-        <v>0.3487179487179487</v>
+        <v>0.354368932038835</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1358695652173913</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0108695652173913</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03260869565217391</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1467391304347826</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01630434782608696</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1793478260869565</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="R7">
-        <v>0.08152173913043478</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="S7">
-        <v>0.3967391304347826</v>
+        <v>0.3969072164948453</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1100917431192661</v>
+        <v>0.113871635610766</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02752293577981652</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03669724770642202</v>
+        <v>0.03519668737060042</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1536697247706422</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02752293577981652</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1674311926605505</v>
+        <v>0.1635610766045549</v>
       </c>
       <c r="R8">
-        <v>0.0871559633027523</v>
+        <v>0.09109730848861283</v>
       </c>
       <c r="S8">
-        <v>0.3899082568807339</v>
+        <v>0.401656314699793</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1445086705202312</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0115606936416185</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06358381502890173</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1502890173410405</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04624277456647399</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1676300578034682</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="R9">
-        <v>0.06936416184971098</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="S9">
-        <v>0.3468208092485549</v>
+        <v>0.3675675675675676</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1198808637379002</v>
+        <v>0.1191961191961192</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03127326880119136</v>
+        <v>0.0297990297990298</v>
       </c>
       <c r="E10">
-        <v>0.0007446016381236039</v>
+        <v>0.001386001386001386</v>
       </c>
       <c r="F10">
-        <v>0.06031273268801191</v>
+        <v>0.05890505890505891</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1280714817572599</v>
+        <v>0.1302841302841303</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02382725241995532</v>
+        <v>0.02356202356202356</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2196574832464631</v>
+        <v>0.2210672210672211</v>
       </c>
       <c r="R10">
-        <v>0.08041697691734921</v>
+        <v>0.07900207900207901</v>
       </c>
       <c r="S10">
-        <v>0.3358153387937454</v>
+        <v>0.3367983367983368</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.130030959752322</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1269349845201238</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="K11">
-        <v>0.2136222910216718</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L11">
-        <v>0.4984520123839009</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03095975232198142</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7380952380952381</v>
+        <v>0.7262569832402235</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2023809523809524</v>
+        <v>0.2122905027932961</v>
       </c>
       <c r="K12">
-        <v>0.005952380952380952</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.01785714285714286</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03571428571428571</v>
+        <v>0.03910614525139665</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5384615384615384</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3846153846153846</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03636363636363636</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1318181818181818</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="I15">
-        <v>0.05</v>
+        <v>0.04845814977973568</v>
       </c>
       <c r="J15">
-        <v>0.3</v>
+        <v>0.2995594713656388</v>
       </c>
       <c r="K15">
-        <v>0.05909090909090909</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00909090909090909</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05</v>
+        <v>0.04845814977973568</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3636363636363636</v>
+        <v>0.3656387665198238</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1361702127659574</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I16">
-        <v>0.08936170212765958</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="J16">
-        <v>0.4297872340425532</v>
+        <v>0.4392156862745098</v>
       </c>
       <c r="K16">
-        <v>0.1063829787234043</v>
+        <v>0.1019607843137255</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="N16">
-        <v>0.008510638297872341</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="O16">
-        <v>0.06382978723404255</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1446808510638298</v>
+        <v>0.1490196078431373</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02637362637362637</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1516483516483516</v>
+        <v>0.16359918200409</v>
       </c>
       <c r="I17">
-        <v>0.07692307692307693</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="J17">
-        <v>0.4483516483516484</v>
+        <v>0.4437627811860941</v>
       </c>
       <c r="K17">
-        <v>0.0989010989010989</v>
+        <v>0.1002044989775051</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01538461538461539</v>
+        <v>0.016359918200409</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06593406593406594</v>
+        <v>0.06339468302658487</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1164835164835165</v>
+        <v>0.114519427402863</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,28 +1454,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005555555555555556</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1388888888888889</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="I18">
-        <v>0.06111111111111111</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J18">
-        <v>0.3888888888888889</v>
+        <v>0.4010416666666667</v>
       </c>
       <c r="K18">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1666666666666667</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01795918367346939</v>
+        <v>0.01661631419939577</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2342857142857143</v>
+        <v>0.2401812688821752</v>
       </c>
       <c r="I19">
-        <v>0.07836734693877551</v>
+        <v>0.07854984894259819</v>
       </c>
       <c r="J19">
-        <v>0.3722448979591837</v>
+        <v>0.3716012084592145</v>
       </c>
       <c r="K19">
-        <v>0.1126530612244898</v>
+        <v>0.1102719033232628</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02204081632653061</v>
+        <v>0.02341389728096677</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0546938775510204</v>
+        <v>0.05211480362537765</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1077551020408163</v>
+        <v>0.1072507552870091</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northwestern St._B.xlsx
+++ b/team_specific_matrix/Northwestern St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2270408163265306</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C2">
-        <v>0.4872448979591837</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02295918367346939</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1862244897959184</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07653061224489796</v>
+        <v>0.07226107226107226</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02512562814070352</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04020100502512563</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7437185929648241</v>
+        <v>0.7327188940092166</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1909547738693467</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6779661016949152</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3220338983050847</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07281553398058252</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004854368932038835</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01456310679611651</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.325242718446602</v>
+        <v>0.3348623853211009</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01941747572815534</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1650485436893204</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="R6">
-        <v>0.04368932038834952</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="S6">
-        <v>0.354368932038835</v>
+        <v>0.3532110091743119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.134020618556701</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01030927835051546</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04123711340206185</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1443298969072165</v>
+        <v>0.1435185185185185</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0154639175257732</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1752577319587629</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="R7">
-        <v>0.08247422680412371</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S7">
-        <v>0.3969072164948453</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.113871635610766</v>
+        <v>0.1199226305609284</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02484472049689441</v>
+        <v>0.02321083172147002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03519668737060042</v>
+        <v>0.03288201160541586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1449275362318841</v>
+        <v>0.1411992263056093</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02484472049689441</v>
+        <v>0.02321083172147002</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1635610766045549</v>
+        <v>0.160541586073501</v>
       </c>
       <c r="R8">
-        <v>0.09109730848861283</v>
+        <v>0.09477756286266925</v>
       </c>
       <c r="S8">
-        <v>0.401656314699793</v>
+        <v>0.4042553191489361</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1351351351351351</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01081081081081081</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06486486486486487</v>
+        <v>0.0625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.145945945945946</v>
+        <v>0.140625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04324324324324325</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1675675675675676</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.06486486486486487</v>
+        <v>0.0625</v>
       </c>
       <c r="S9">
-        <v>0.3675675675675676</v>
+        <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1191961191961192</v>
+        <v>0.1239509360877986</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0297990297990298</v>
+        <v>0.02969657843770174</v>
       </c>
       <c r="E10">
-        <v>0.001386001386001386</v>
+        <v>0.001291155584247902</v>
       </c>
       <c r="F10">
-        <v>0.05890505890505891</v>
+        <v>0.05810200129115559</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1302841302841303</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02356202356202356</v>
+        <v>0.02324080051646223</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2210672210672211</v>
+        <v>0.2162685603615236</v>
       </c>
       <c r="R10">
-        <v>0.07900207900207901</v>
+        <v>0.07876049063912201</v>
       </c>
       <c r="S10">
-        <v>0.3367983367983368</v>
+        <v>0.3395739186571982</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1235294117647059</v>
+        <v>0.1240105540897098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1294117647058824</v>
+        <v>0.1319261213720317</v>
       </c>
       <c r="K11">
-        <v>0.2117647058823529</v>
+        <v>0.2137203166226913</v>
       </c>
       <c r="L11">
-        <v>0.5058823529411764</v>
+        <v>0.503957783641161</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02941176470588235</v>
+        <v>0.02638522427440633</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7262569832402235</v>
+        <v>0.7323232323232324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2122905027932961</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K12">
-        <v>0.00558659217877095</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="L12">
-        <v>0.01675977653631285</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03910614525139665</v>
+        <v>0.03535353535353535</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5813953488372093</v>
+        <v>0.5625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3488372093023256</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06976744186046512</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03524229074889868</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.13215859030837</v>
+        <v>0.1291666666666667</v>
       </c>
       <c r="I15">
-        <v>0.04845814977973568</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.2995594713656388</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
-        <v>0.06167400881057269</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00881057268722467</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04845814977973568</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3656387665198238</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0196078431372549</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1372549019607843</v>
+        <v>0.1418181818181818</v>
       </c>
       <c r="I16">
-        <v>0.08235294117647059</v>
+        <v>0.07636363636363637</v>
       </c>
       <c r="J16">
-        <v>0.4392156862745098</v>
+        <v>0.44</v>
       </c>
       <c r="K16">
-        <v>0.1019607843137255</v>
+        <v>0.1018181818181818</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00392156862745098</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="N16">
-        <v>0.007843137254901961</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="O16">
-        <v>0.05882352941176471</v>
+        <v>0.05818181818181818</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1490196078431373</v>
+        <v>0.1490909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0245398773006135</v>
+        <v>0.02529182879377432</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.16359918200409</v>
+        <v>0.1614785992217899</v>
       </c>
       <c r="I17">
-        <v>0.0736196319018405</v>
+        <v>0.07198443579766536</v>
       </c>
       <c r="J17">
-        <v>0.4437627811860941</v>
+        <v>0.443579766536965</v>
       </c>
       <c r="K17">
-        <v>0.1002044989775051</v>
+        <v>0.1031128404669261</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.016359918200409</v>
+        <v>0.01750972762645914</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06339468302658487</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.114519427402863</v>
+        <v>0.1147859922178988</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005208333333333333</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1354166666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.07291666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4010416666666667</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02083333333333333</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.15625</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01661631419939577</v>
+        <v>0.01665510062456627</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2401812688821752</v>
+        <v>0.2359472588480222</v>
       </c>
       <c r="I19">
-        <v>0.07854984894259819</v>
+        <v>0.07564191533657183</v>
       </c>
       <c r="J19">
-        <v>0.3716012084592145</v>
+        <v>0.3671061762664816</v>
       </c>
       <c r="K19">
-        <v>0.1102719033232628</v>
+        <v>0.1138098542678695</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02341389728096677</v>
+        <v>0.02428868841082582</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05211480362537765</v>
+        <v>0.05135322692574601</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1072507552870091</v>
+        <v>0.1151977793199167</v>
       </c>
     </row>
   </sheetData>
